--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43394,6 +43394,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43431,6 +43431,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43468,6 +43468,41 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43503,6 +43503,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>22300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43538,6 +43538,43 @@
         <v>22300</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43575,6 +43575,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43610,6 +43610,43 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43647,6 +43647,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43684,6 +43684,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43719,6 +43719,41 @@
         <v>5600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43754,6 +43754,43 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43791,6 +43791,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43826,6 +43826,76 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>66000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43896,6 +43896,78 @@
         <v>66000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43968,6 +43968,43 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44005,6 +44005,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44042,6 +44042,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>127000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44077,6 +44077,76 @@
         <v>127000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44147,6 +44147,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>42800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44182,6 +44182,41 @@
         <v>42800</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2555"/>
+  <dimension ref="A1:I2556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90487,6 +90487,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2556" t="n">
+        <v>130300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2556"/>
+  <dimension ref="A1:I2557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90522,6 +90522,41 @@
         <v>130300</v>
       </c>
     </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2557" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I2557" t="n">
+        <v>17500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2557"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90557,6 +90557,41 @@
         <v>17500</v>
       </c>
     </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>45100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90592,6 +90592,43 @@
         <v>45100</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2559" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90629,6 +90629,43 @@
         </is>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2560" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2560"/>
+  <dimension ref="A1:I2561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90666,6 +90666,43 @@
         </is>
       </c>
     </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2561" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90703,6 +90703,43 @@
         </is>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2562" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90740,6 +90740,43 @@
         </is>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2563" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2563"/>
+  <dimension ref="A1:I2564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90777,6 +90777,43 @@
         </is>
       </c>
     </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2564" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2564"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90814,6 +90814,43 @@
         </is>
       </c>
     </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I2565" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90851,6 +90851,41 @@
         </is>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90886,6 +90886,43 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2567" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90923,6 +90923,41 @@
         </is>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2568"/>
+  <dimension ref="A1:I2569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90958,6 +90958,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5048.xlsx
+++ b/data/5048.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2569"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90993,6 +90993,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>YILAI</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2570" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
